--- a/serial_numbers_streamlit.xlsx
+++ b/serial_numbers_streamlit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,25 +3862,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>00002</t>
-        </is>
+      <c r="E101" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>12</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -3904,25 +3896,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>00003</t>
-        </is>
+      <c r="E102" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>12</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -3946,25 +3930,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>00004</t>
-        </is>
+      <c r="E103" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>12</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="104">
@@ -3988,25 +3964,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>00005</t>
-        </is>
+      <c r="E104" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" t="n">
+        <v>12</v>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -4030,25 +3998,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>00006</t>
-        </is>
+      <c r="E105" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" t="n">
+        <v>12</v>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="106">
@@ -4072,25 +4032,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>00007</t>
-        </is>
+      <c r="E106" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" t="n">
+        <v>12</v>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="107">
@@ -4114,25 +4066,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>00008</t>
-        </is>
+      <c r="E107" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="108">
@@ -4156,25 +4100,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>00009</t>
-        </is>
+      <c r="E108" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="n">
+        <v>12</v>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="109">
@@ -4198,25 +4134,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>00010</t>
-        </is>
+      <c r="E109" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>12</v>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="110">
@@ -4240,25 +4168,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>00011</t>
-        </is>
+      <c r="E110" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" t="n">
+        <v>12</v>
+      </c>
+      <c r="H110" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="111">
@@ -4282,25 +4202,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>00012</t>
-        </is>
+      <c r="E111" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12</v>
+      </c>
+      <c r="H111" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -4324,25 +4236,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>00013</t>
-        </is>
+      <c r="E112" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>12</v>
+      </c>
+      <c r="H112" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -4366,25 +4270,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>00014</t>
-        </is>
+      <c r="E113" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>12</v>
+      </c>
+      <c r="H113" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -4408,25 +4304,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>00015</t>
-        </is>
+      <c r="E114" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12</v>
+      </c>
+      <c r="H114" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="115">
@@ -4450,25 +4338,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>00016</t>
-        </is>
+      <c r="E115" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="n">
+        <v>12</v>
+      </c>
+      <c r="H115" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="116">
@@ -4492,25 +4372,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>00017</t>
-        </is>
+      <c r="E116" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12</v>
+      </c>
+      <c r="H116" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="117">
@@ -4534,25 +4406,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>00018</t>
-        </is>
+      <c r="E117" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="n">
+        <v>12</v>
+      </c>
+      <c r="H117" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="118">
@@ -4576,25 +4440,17 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>00019</t>
-        </is>
+      <c r="E118" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>12</v>
+      </c>
+      <c r="H118" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="119">
@@ -4618,24 +4474,436 @@
           <t>amc-2500</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>2027</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
+      <c r="E119" t="n">
+        <v>2027</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12</v>
+      </c>
+      <c r="H119" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200001</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>00020</t>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200002</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200003</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>00003</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200004</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200005</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>00005</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200006</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>00006</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200007</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>00007</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200008</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>00008</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200009</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>00009</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NBMCVAED0200010</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>닝보 타이웨이</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>무선 진공 청소기</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>amc-2500</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>00010</t>
         </is>
       </c>
     </row>
